--- a/Optimizer_Usage_List.xlsx
+++ b/Optimizer_Usage_List.xlsx
@@ -478,25 +478,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7967000000000001</v>
+        <v>0.8647</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4253</v>
+        <v>0.5053</v>
       </c>
       <c r="D2" t="n">
-        <v>0.75867</v>
+        <v>0.70103</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9471000000000001</v>
+        <v>1.0061</v>
       </c>
       <c r="F2" t="n">
-        <v>1.01969</v>
+        <v>1.03005</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8279000000000001</v>
+        <v>0.6788999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.80853</v>
+        <v>0.8031700000000001</v>
       </c>
     </row>
     <row r="3">
@@ -506,25 +506,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7884000000000001</v>
+        <v>0.7764</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4253</v>
+        <v>0.5053</v>
       </c>
       <c r="D3" t="n">
-        <v>0.89167</v>
+        <v>0.8340300000000002</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9554</v>
+        <v>1.0144</v>
       </c>
       <c r="F3" t="n">
-        <v>0.88669</v>
+        <v>0.9470500000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8362000000000001</v>
+        <v>0.7672</v>
       </c>
       <c r="H3" t="n">
-        <v>0.80853</v>
+        <v>0.8031700000000001</v>
       </c>
     </row>
     <row r="4">
@@ -534,25 +534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7967000000000001</v>
+        <v>0.7847</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4253</v>
+        <v>0.5053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.89167</v>
+        <v>0.8340300000000002</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9471000000000001</v>
+        <v>1.0061</v>
       </c>
       <c r="F4" t="n">
-        <v>0.88669</v>
+        <v>0.9770500000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8362000000000001</v>
+        <v>0.6871999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.80853</v>
+        <v>0.8031700000000001</v>
       </c>
     </row>
   </sheetData>
